--- a/Figures-Tables-Manuscript/Supplemental/TS1_LITERATURE-MODERN.xlsx
+++ b/Figures-Tables-Manuscript/Supplemental/TS1_LITERATURE-MODERN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocelynreahl/Documents/BergmannLab_2018-2020/Reahl_2020/Figures-Tables-Manuscript/Supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB900B7-46FE-DA40-9A59-42CE63A696EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A2F23-FF7F-7A44-B21B-600C85B08D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="440" windowWidth="14400" windowHeight="14180" xr2:uid="{7BF51F8D-59CF-1847-A9F3-9C0A020017DB}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="14400" windowHeight="14180" xr2:uid="{7BF51F8D-59CF-1847-A9F3-9C0A020017DB}"/>
   </bookViews>
   <sheets>
     <sheet name="LITERATURE-MODERN" sheetId="3" r:id="rId1"/>
@@ -188,7 +188,7 @@
     <t>General</t>
   </si>
   <si>
-    <t>Table [LITERATURE-MODERN]. Microtextural comparison table of all the studies with modern samples considered in this work. Microtextures with no analog to the microtextures analyzed in this study are marked with “N/A”.</t>
+    <t>Table S1. Microtextural comparison table of all the studies with modern samples considered in this work. Microtextures with no analog to the microtextures analyzed in this study are marked with “N/A”.</t>
   </si>
 </sst>
 </file>
@@ -340,6 +340,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -360,9 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,495 +678,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2B643D-B0B8-7047-8F5C-AE8C35D1EA7F}">
-  <dimension ref="B1:J26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="66" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="3.83203125" customWidth="1"/>
-    <col min="4" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="1" max="2" width="3.83203125" customWidth="1"/>
+    <col min="3" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="2:10" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="F5" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="G5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="2:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>46</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="G9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="23" t="s">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="24" t="s">
         <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="24"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="23" t="s">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="24" t="s">
         <v>48</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="D20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20" t="s">
         <v>49</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="C23" s="23" t="s">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="24" t="s">
         <v>50</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>24</v>
@@ -1174,77 +1177,74 @@
       <c r="E23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="D25" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="17" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B1:I3"/>
-    <mergeCell ref="B6:B25"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
